--- a/Book.xlsx
+++ b/Book.xlsx
@@ -5,15 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\246017\Desktop\Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\246017\Documents\groupwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205BFE12-A04A-446B-9E74-167E9963F000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C7EBDE-DDF2-4424-981F-5732453ACED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="10488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="10488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="全体構成" sheetId="1" r:id="rId1"/>
+    <sheet name="カレンダー" sheetId="2" r:id="rId2"/>
+    <sheet name="時間帯" sheetId="3" r:id="rId3"/>
+    <sheet name="スケジュール追加" sheetId="5" r:id="rId4"/>
+    <sheet name="スケジュール変更・削除" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1093,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="J37:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J41" activeCellId="1" sqref="J42 J41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1116,13 +1120,66 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEC3699-1C17-42E8-B66E-859AD8E93285}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40CBE156-A399-47A5-A98E-6A9DF00B993C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE207C2-4E56-4BF6-B4C1-97C0A8E6250D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0813DA3C-1411-4978-A88F-4B802A5F450E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1264,15 +1321,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4473C06-38FF-49C7-B5A4-AC7AA7C76CD1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BC60FFD-10AE-4609-8C5A-3C449FDCBDE3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1296,10 +1357,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BC60FFD-10AE-4609-8C5A-3C449FDCBDE3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4473C06-38FF-49C7-B5A4-AC7AA7C76CD1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Book.xlsx
+++ b/Book.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\246017\Documents\groupwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C7EBDE-DDF2-4424-981F-5732453ACED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687EED16-1955-48E0-B402-8059D0246918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="10488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体構成" sheetId="1" r:id="rId1"/>
-    <sheet name="カレンダー" sheetId="2" r:id="rId2"/>
+    <sheet name="カレンダー" sheetId="6" r:id="rId2"/>
     <sheet name="時間帯" sheetId="3" r:id="rId3"/>
     <sheet name="スケジュール追加" sheetId="5" r:id="rId4"/>
     <sheet name="スケジュール変更・削除" sheetId="4" r:id="rId5"/>
@@ -40,13 +40,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>a</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>aas</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間帯</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール追加</t>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール変更・削除</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクジョ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -769,6 +797,2654 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
             <a:t>スケジュール変更・削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5747B90-1CA8-496A-9129-9D43CCC7089B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1356360" y="457200"/>
+          <a:ext cx="4457700" cy="2598420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E81256C5-7AA8-43AE-A63F-C2F4C13DAC9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1927860" y="868680"/>
+          <a:ext cx="3467100" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>カレンダー画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA75D0DA-AB02-49BE-ADC8-AA70902AD4DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1280160" y="4335780"/>
+          <a:ext cx="6766560" cy="4023360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9403A8F-462D-E6F7-E234-F82864C9E1BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4335780" y="5013960"/>
+          <a:ext cx="327660" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50CF0747-3A2F-4FAF-A8C8-3415EEACD618}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5311140" y="5021580"/>
+          <a:ext cx="327660" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>２</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B5398ED-ACEC-4DDF-B595-467204656660}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6278880" y="5036820"/>
+          <a:ext cx="327660" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>３</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10C586BF-5141-4284-A325-615A804BE868}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7254240" y="5029200"/>
+          <a:ext cx="327660" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>４</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9479520D-3048-483C-86F8-498822B82A86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1623060" y="5715000"/>
+          <a:ext cx="327660" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>５</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E42DB88-4C8C-46B5-B95A-83CEF558414A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590800" y="5730240"/>
+          <a:ext cx="327660" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>６</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5034746B-9848-4230-9DBD-C5D5395EB663}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3444240" y="5722620"/>
+          <a:ext cx="327660" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>７</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78D1FC16-C0F2-456C-80AD-F8E90890CC7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4343400" y="5745480"/>
+          <a:ext cx="327660" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>８</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D90EC6-03AA-4D86-BDCA-06000C5902DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5318760" y="5753100"/>
+          <a:ext cx="327660" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>９</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13671EBC-5A89-4E5F-9CA8-4EE3F2642E24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6202680" y="5768340"/>
+          <a:ext cx="525780" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１０</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A156F05-F8FE-4F43-94E0-4161E5E4AF87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7193280" y="5760720"/>
+          <a:ext cx="480060" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１１</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6A2581B-5066-447A-910A-D62605C2C993}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1516380" y="6416040"/>
+          <a:ext cx="525780" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１２</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD1D9B11-00D3-4C00-956B-F5954516F5EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2506980" y="6408420"/>
+          <a:ext cx="480060" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１３</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{512EF2E9-7C6D-4C15-A126-3762F87B10EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4312920" y="6385560"/>
+          <a:ext cx="495300" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１５</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F7940A-ED73-4C6E-899F-39D37A695AE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3421380" y="6408420"/>
+          <a:ext cx="480060" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１４</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{152F6613-3926-40ED-84E4-A838FF2D7C19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5257800" y="6377940"/>
+          <a:ext cx="480060" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１６</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{765F5968-0DAD-4F09-9321-E2B36DB20940}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7155180" y="6355080"/>
+          <a:ext cx="495300" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１８</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D39D252C-9677-43E4-9D2B-8EB867171C97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="6377940"/>
+          <a:ext cx="480060" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１７</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A250B0B-D935-417D-8898-1CA85AD6DD03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1516380" y="7040880"/>
+          <a:ext cx="525780" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>１９</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB1493EB-F1E6-4F37-B96B-77FF2509EA56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2506980" y="7033260"/>
+          <a:ext cx="480060" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>２０</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B50331-19C7-41E1-A4A8-4A206CF12452}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4312920" y="7010400"/>
+          <a:ext cx="495300" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>２２</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A9F988E-406B-40CB-89D9-503A1B515DC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3421380" y="7033260"/>
+          <a:ext cx="480060" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>２１</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66812A3F-2931-4729-87CD-8A3AEF7700AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5257800" y="7002780"/>
+          <a:ext cx="480060" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>２３</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3354DEC5-88BE-4213-BD2F-D9934C5C41F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7155180" y="6979920"/>
+          <a:ext cx="495300" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>２５</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9CAE8F7-D925-4D1E-BCFD-E8B2204589E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="7002780"/>
+          <a:ext cx="480060" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>２４</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41554DDF-63E5-4471-8633-EF25B2FFF452}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1501140" y="7688580"/>
+          <a:ext cx="525780" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>２６</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25109838-008B-4232-8AB0-0C0B0D7D4770}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2491740" y="7680960"/>
+          <a:ext cx="480060" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>２７</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FA1479C-EAD5-4AD6-8B98-26302DFF39CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4297680" y="7658100"/>
+          <a:ext cx="495300" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>２９</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F022844-1068-4A6F-9811-F85F36CF9EA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3406140" y="7680960"/>
+          <a:ext cx="480060" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>２８</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE8B470-E098-4FE3-A174-4B8DF469C174}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5242560" y="7650480"/>
+          <a:ext cx="480060" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>３０</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{212C6764-25C6-4A6A-A534-DCAB50F63B8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6156960" y="7650480"/>
+          <a:ext cx="480060" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>３１</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA41262B-2667-4167-A9E2-394D2DD01AC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="4549140"/>
+          <a:ext cx="822960" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>１月</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="テキスト ボックス 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A89110A-2EEB-43EA-B23F-8C1E45E806CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3947160" y="8450580"/>
+          <a:ext cx="1478280" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>カレンダー画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32078DC5-028C-42F9-9CE2-5821EAB06B16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="929640" y="426720"/>
+          <a:ext cx="6271260" cy="3703320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ED015F1-C02A-0396-DB65-1C080A164C8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2796540" y="579120"/>
+          <a:ext cx="2545080" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>時間帯</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1098,7 +3774,7 @@
   <dimension ref="J37:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1121,15 +3797,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEC3699-1C17-42E8-B66E-859AD8E93285}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8639C4BA-C74C-4F77-A247-CF6D4E1CF153}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1137,25 +3822,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40CBE156-A399-47A5-A98E-6A9DF00B993C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE207C2-4E56-4BF6-B4C1-97C0A8E6250D}">
-  <dimension ref="A1"/>
+  <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1166,11 +3866,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book.xlsx
+++ b/Book.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\246017\Documents\groupwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687EED16-1955-48E0-B402-8059D0246918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5D1B5B-E7C4-42DD-8B87-1831CF69A4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体構成" sheetId="1" r:id="rId1"/>
     <sheet name="カレンダー" sheetId="6" r:id="rId2"/>
     <sheet name="時間帯" sheetId="3" r:id="rId3"/>
-    <sheet name="スケジュール追加" sheetId="5" r:id="rId4"/>
-    <sheet name="スケジュール変更・削除" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId4"/>
+    <sheet name="スケジュール追加" sheetId="5" r:id="rId5"/>
+    <sheet name="スケジュール変更・削除" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -803,6 +804,128 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EC8D059-F413-425E-B198-DD4571E70F83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6568440" y="213360"/>
+          <a:ext cx="4457700" cy="2598420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B4AC24B-385C-411A-B940-87B1E7B19226}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7139940" y="624840"/>
+          <a:ext cx="3467100" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:t>タグ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3324,16 +3447,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3348,8 +3471,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="929640" y="426720"/>
-          <a:ext cx="6271260" cy="3703320"/>
+          <a:off x="624840" y="967740"/>
+          <a:ext cx="6911340" cy="3703320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3383,15 +3506,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3406,7 +3529,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2796540" y="579120"/>
+          <a:off x="2819400" y="1150620"/>
           <a:ext cx="2545080" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3445,6 +3568,4040 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>時間帯</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36175F79-9275-41D4-A82B-5BE39E2DDF7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="2042160"/>
+          <a:ext cx="266700" cy="2103120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9FB06EE-0299-4ACD-B215-33A61BAEFFF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6804660" y="2034540"/>
+          <a:ext cx="266700" cy="2103120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D64FDDDE-A8AD-4A7F-9969-3F3F5A369C9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6530340" y="2042160"/>
+          <a:ext cx="266700" cy="2103120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F9EB9D-286A-4118-AFD6-65A75053133B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6263640" y="2049780"/>
+          <a:ext cx="266700" cy="2103120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{301E9C93-E51D-4543-B2E8-EBE48B0CFBE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5989320" y="2049780"/>
+          <a:ext cx="266700" cy="2103120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{044AFBFF-724D-4FFE-90F8-0EC588669CD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5737860" y="2049780"/>
+          <a:ext cx="266700" cy="2103120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE6726F-5D4F-4117-A7CE-97DB4AF22FD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5463540" y="2042160"/>
+          <a:ext cx="266700" cy="2103120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3EC8379-46A3-4542-B69A-3668D9CD0FFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5196840" y="2042160"/>
+          <a:ext cx="266700" cy="2103120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEEC7666-97DF-4801-8DBA-E0095AD272DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914900" y="2042160"/>
+          <a:ext cx="266700" cy="2103120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB6F6F3A-3BF1-416B-AA1F-9B0C9D75C195}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="2042160"/>
+          <a:ext cx="266700" cy="2103120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE86F07-C107-4276-9CC9-F67E6346D0C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4373880" y="2042160"/>
+          <a:ext cx="266700" cy="2103120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4FB7E7-40F5-40C6-AEAD-0B1866124FE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4099560" y="2042160"/>
+          <a:ext cx="266700" cy="2103120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10C24CC3-CEA4-4567-8392-BD26859A0056}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3832860" y="2042160"/>
+          <a:ext cx="266700" cy="2103120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B855F31-CA03-46AC-8DB2-6ECB0AB7572D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3558540" y="2042160"/>
+          <a:ext cx="266700" cy="2103120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85CB6408-9E7E-4B71-857F-21CCA113031C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3291840" y="2042160"/>
+          <a:ext cx="266700" cy="2103120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22570A28-B6FD-4FA3-AA39-8A7E054B1FFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="2042160"/>
+          <a:ext cx="266700" cy="2103120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C4FC54-F9D7-43FE-B044-F52A7AA91770}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2735580" y="2042160"/>
+          <a:ext cx="266700" cy="2103120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81ABCE6B-90C0-4F71-8BEE-9A8B41162B5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2461260" y="2042160"/>
+          <a:ext cx="266700" cy="2103120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7291A28C-27D3-445B-8831-A0E5F20401FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2194560" y="2042160"/>
+          <a:ext cx="266700" cy="2103120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F462E37-7CD8-4301-97B8-976A081F67A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1927860" y="2042160"/>
+          <a:ext cx="266700" cy="2103120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA9056D4-E2CC-4526-8577-7BD44F018C42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="2042160"/>
+          <a:ext cx="266700" cy="2103120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B59DA439-4DF2-4826-B0E6-D0CE08D1AAD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="2042160"/>
+          <a:ext cx="266700" cy="2103120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="正方形/長方形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFCC740C-B84C-40EE-A533-59B89EDFAFF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1112520" y="2042160"/>
+          <a:ext cx="266700" cy="2103120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B164A78-8AA5-4CE2-9FA9-7E28D8B54DBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="845820" y="2042160"/>
+          <a:ext cx="266700" cy="2103120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45AF77CB-DD66-9A68-773F-48DDC508C359}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="845820" y="1714500"/>
+          <a:ext cx="1348740" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>深夜</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8D7509-9A0B-4F86-A236-2235BED1D22E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2202180" y="1714500"/>
+          <a:ext cx="1363980" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>朝</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="正方形/長方形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E0DDA7C-6C4F-474D-9459-7865F1163000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3558540" y="1722120"/>
+          <a:ext cx="1363980" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>昼</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5DFCD95-314D-4439-8DF1-CD868693C3B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4907280" y="1714500"/>
+          <a:ext cx="1363980" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>夕方</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="正方形/長方形 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57C79B96-A84B-4315-BC7B-CCD1B188BA86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6271260" y="1714500"/>
+          <a:ext cx="1089660" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>夜</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3773,8 +7930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="J37:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3800,8 +7957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8639C4BA-C74C-4F77-A247-CF6D4E1CF153}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3822,8 +7979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40CBE156-A399-47A5-A98E-6A9DF00B993C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3841,6 +7998,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0383A8-0137-4F0C-9816-3A8860DB02A2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE207C2-4E56-4BF6-B4C1-97C0A8E6250D}">
   <dimension ref="A2"/>
   <sheetViews>
@@ -3861,7 +8031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0813DA3C-1411-4978-A88F-4B802A5F450E}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Book.xlsx
+++ b/Book.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\246017\Documents\groupwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5D1B5B-E7C4-42DD-8B87-1831CF69A4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B069EC10-5AD8-4314-A710-074C01F70F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体構成" sheetId="1" r:id="rId1"/>
     <sheet name="カレンダー" sheetId="6" r:id="rId2"/>
-    <sheet name="時間帯" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId4"/>
-    <sheet name="スケジュール追加" sheetId="5" r:id="rId5"/>
-    <sheet name="スケジュール変更・削除" sheetId="4" r:id="rId6"/>
+    <sheet name="時間帯。・通知" sheetId="3" r:id="rId3"/>
+    <sheet name="スケジュール追加" sheetId="5" r:id="rId4"/>
+    <sheet name="スケジュール変更・削除" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -55,13 +54,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>時間帯</t>
-    <rPh sb="0" eb="3">
-      <t>ジカンタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スケジュール追加</t>
     <rPh sb="6" eb="8">
       <t>ツイカ</t>
@@ -75,6 +67,16 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間帯・通知</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツウチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3440,6 +3442,130 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="矢印: 左 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CBC037B-FE01-133B-5261-D7014AE6FA7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20190207">
+          <a:off x="8877300" y="4434840"/>
+          <a:ext cx="1653540" cy="693420"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日付が表示される</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D309337-7210-E20B-45F2-AB4C88FEBFA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8816340" y="5669280"/>
+          <a:ext cx="1897380" cy="662940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>好きな日付をクリックすると時間帯画面に移行する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7602,6 +7728,148 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>夜</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="テキスト ボックス 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1681ED14-93B3-4FA6-A168-66B4A6A77E95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="899160" y="1150620"/>
+          <a:ext cx="1196340" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日付</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="テキスト ボックス 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3051E2B-2697-4F3C-AAB3-E4954835B06E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="830580" y="4236720"/>
+          <a:ext cx="6568440" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メニュー</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7957,8 +8225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8639C4BA-C74C-4F77-A247-CF6D4E1CF153}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7979,15 +8247,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40CBE156-A399-47A5-A98E-6A9DF00B993C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -7998,19 +8266,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0383A8-0137-4F0C-9816-3A8860DB02A2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE207C2-4E56-4BF6-B4C1-97C0A8E6250D}">
   <dimension ref="A2"/>
   <sheetViews>
@@ -8022,7 +8277,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -8031,7 +8286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0813DA3C-1411-4978-A88F-4B802A5F450E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8043,7 +8298,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Book.xlsx
+++ b/Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\246017\Documents\groupwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B069EC10-5AD8-4314-A710-074C01F70F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB30EF2-A7AD-4074-80D6-B34DDFC35E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8226,7 +8226,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/Book.xlsx
+++ b/Book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\246017\Documents\groupwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB30EF2-A7AD-4074-80D6-B34DDFC35E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F9A685-E8D0-4B52-AE8C-D4D4297DBD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体構成" sheetId="1" r:id="rId1"/>
@@ -7870,6 +7870,260 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>メニュー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFADE9B1-DA5D-42C9-6940-93FA3ABA5B6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="541020" y="556260"/>
+          <a:ext cx="5600700" cy="3284220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD501D4-A203-BD54-7E43-59A3217E3074}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1074420" y="792480"/>
+          <a:ext cx="4617720" cy="2705100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スケジュール追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3EA445A-8F69-4709-A886-713438B21523}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="708660" y="4594860"/>
+          <a:ext cx="6294120" cy="3185160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5777245-94C7-28A6-0FF1-0F7A4D5C834F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="960120" y="4777740"/>
+          <a:ext cx="1386840" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スケジュール追加</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8198,8 +8452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="J37:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8225,8 +8479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8639C4BA-C74C-4F77-A247-CF6D4E1CF153}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8247,8 +8501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40CBE156-A399-47A5-A98E-6A9DF00B993C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8269,8 +8523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE207C2-4E56-4BF6-B4C1-97C0A8E6250D}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8283,6 +8537,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8291,7 +8546,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8308,9 +8563,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8452,19 +8710,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BC60FFD-10AE-4609-8C5A-3C449FDCBDE3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4473C06-38FF-49C7-B5A4-AC7AA7C76CD1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8488,9 +8742,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4473C06-38FF-49C7-B5A4-AC7AA7C76CD1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BC60FFD-10AE-4609-8C5A-3C449FDCBDE3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>